--- a/src/main/resources/TestData_TaskComments.xlsx
+++ b/src/main/resources/TestData_TaskComments.xlsx
@@ -11,56 +11,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>Parent name</t>
-  </si>
-  <si>
-    <t>Parent type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Default</t>
+    <t>Comment 01</t>
   </si>
   <si>
-    <t>List</t>
+    <t>Comment 02</t>
   </si>
   <si>
-    <t>Comment 01 on list</t>
-  </si>
-  <si>
-    <t>Task 01</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Comment 02 on task 01</t>
-  </si>
-  <si>
-    <t>Comment 03 on task 01</t>
+    <t>Comment 03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -76,17 +51,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -305,56 +274,28 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
-    <col customWidth="1" min="2" max="2" width="42.29"/>
-    <col customWidth="1" min="3" max="3" width="42.86"/>
+    <col customWidth="1" min="1" max="1" width="42.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
